--- a/economic/economic_parameters_full.xlsx
+++ b/economic/economic_parameters_full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="13740" windowWidth="38040" windowHeight="18620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="680" yWindow="1240" windowWidth="43840" windowHeight="18620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -358,15 +358,6 @@
     <t>Total Risk</t>
   </si>
   <si>
-    <t>Substitute Component</t>
-  </si>
-  <si>
-    <t>r value</t>
-  </si>
-  <si>
-    <t>p value</t>
-  </si>
-  <si>
     <t>Attitude of government</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>FDI net inflows</t>
   </si>
   <si>
-    <t>Sample size</t>
-  </si>
-  <si>
     <t>sample size too small</t>
   </si>
   <si>
@@ -407,6 +395,60 @@
   </si>
   <si>
     <t>Econmic Score</t>
+  </si>
+  <si>
+    <t>Substitute Variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-value</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -416,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +515,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -787,8 +837,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,22 +922,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,15 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -999,9 +1044,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,18 +1092,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1358,11 +1440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158311312"/>
-        <c:axId val="1158330800"/>
+        <c:axId val="1086606064"/>
+        <c:axId val="1086207616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1158311312"/>
+        <c:axId val="1086606064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,12 +1500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158330800"/>
+        <c:crossAx val="1086207616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1158330800"/>
+        <c:axId val="1086207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158311312"/>
+        <c:crossAx val="1086606064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2397,35 +2479,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="49" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -2440,7 +2522,7 @@
       <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2455,10 +2537,10 @@
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="53" t="s">
         <v>73</v>
       </c>
       <c r="O3" s="21" t="s">
@@ -2473,28 +2555,28 @@
       <c r="R3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
         <v>21382</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="57"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="8">
         <v>0.89</v>
       </c>
@@ -2507,10 +2589,10 @@
       <c r="L4" s="11">
         <v>85.45</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="50">
         <v>-1.86</v>
       </c>
-      <c r="N4" s="61"/>
+      <c r="N4" s="54"/>
       <c r="O4">
         <v>-13.29</v>
       </c>
@@ -2520,22 +2602,22 @@
       <c r="Q4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="S4" s="54">
+      <c r="S4" s="47">
         <v>15000</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="47">
         <v>0.311</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <v>14253</v>
@@ -2543,7 +2625,7 @@
       <c r="G5" s="6">
         <v>31</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="8">
         <v>0.53</v>
       </c>
@@ -2556,10 +2638,10 @@
       <c r="L5" s="11">
         <v>154.06</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="50">
         <v>0.72</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="54"/>
       <c r="O5">
         <v>-14.83</v>
       </c>
@@ -2569,28 +2651,28 @@
       <c r="Q5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="47">
         <v>93581</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="47">
         <v>2.1709999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>26406</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="8">
         <v>1.38</v>
       </c>
@@ -2603,10 +2685,10 @@
       <c r="L6" s="11">
         <v>-22.57</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="50">
         <v>0.48</v>
       </c>
-      <c r="N6" s="61"/>
+      <c r="N6" s="54"/>
       <c r="O6">
         <v>17.29</v>
       </c>
@@ -2616,24 +2698,24 @@
       <c r="Q6">
         <v>2.5</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="47">
         <v>113648</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="47">
         <v>2.516</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="27">
         <v>50</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="4">
         <v>66</v>
       </c>
@@ -2643,7 +2725,7 @@
       <c r="G7" s="6">
         <v>82</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="50">
         <v>77</v>
       </c>
       <c r="I7" s="8">
@@ -2658,10 +2740,10 @@
       <c r="L7" s="11">
         <v>384.91</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="50">
         <v>1.86</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="54">
         <v>121</v>
       </c>
       <c r="O7">
@@ -2673,24 +2755,24 @@
       <c r="Q7">
         <v>-1.7</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="48">
         <v>327316</v>
       </c>
-      <c r="T7" s="55">
+      <c r="T7" s="48">
         <v>9.0660000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>75</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="4">
         <v>61</v>
       </c>
@@ -2700,7 +2782,7 @@
       <c r="G8" s="6">
         <v>80</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="50">
         <v>83.7</v>
       </c>
       <c r="I8" s="8">
@@ -2715,10 +2797,10 @@
       <c r="L8" s="11">
         <v>254.52</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="50">
         <v>-1.2</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="54">
         <v>117</v>
       </c>
       <c r="O8">
@@ -2730,94 +2812,94 @@
       <c r="Q8">
         <v>0.8</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="48">
         <v>291495</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="48">
         <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5">
         <v>21000</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="8"/>
       <c r="J9" s="14"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="61"/>
-      <c r="S9" s="54">
+      <c r="M9" s="51"/>
+      <c r="N9" s="54"/>
+      <c r="S9" s="47">
         <v>18659</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="47">
         <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="4"/>
       <c r="F10" s="12">
         <v>30880</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11">
         <v>51605</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="50">
         <v>0.84</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="54"/>
       <c r="P10">
         <v>0.84</v>
       </c>
       <c r="Q10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="48">
         <v>34232</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="4"/>
       <c r="F11" s="12">
         <v>57458</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="8">
         <v>0.82</v>
       </c>
@@ -2830,34 +2912,34 @@
       <c r="L11" s="11">
         <v>18987.38</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="50">
         <v>-2.93</v>
       </c>
-      <c r="N11" s="61"/>
+      <c r="N11" s="54"/>
       <c r="P11">
         <v>-2.93</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="48">
         <v>57268</v>
       </c>
-      <c r="T11" s="55">
+      <c r="T11" s="48">
         <v>2.5070000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="27">
         <v>10</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="4">
         <v>47</v>
       </c>
@@ -2865,7 +2947,7 @@
         <v>7929</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="57">
+      <c r="H12" s="50">
         <v>66</v>
       </c>
       <c r="I12" s="8">
@@ -2878,10 +2960,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="57">
+      <c r="M12" s="50">
         <v>4.6100000000000003</v>
       </c>
-      <c r="N12" s="61"/>
+      <c r="N12" s="54"/>
       <c r="O12">
         <v>3.03</v>
       </c>
@@ -2891,38 +2973,38 @@
       <c r="Q12">
         <v>4.3</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="48">
         <v>11179995</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="48">
         <v>128.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="4"/>
       <c r="F13" s="12">
         <v>19869</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11">
         <v>175.14</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="50">
         <v>0</v>
       </c>
-      <c r="N13" s="61"/>
+      <c r="N13" s="54"/>
       <c r="O13">
         <v>-1761</v>
       </c>
@@ -2935,24 +3017,24 @@
       <c r="R13">
         <v>-13.8</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="48">
         <v>149035</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="48">
         <v>3.1280000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="27">
         <v>75</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="4">
         <v>59</v>
       </c>
@@ -2962,7 +3044,7 @@
       <c r="G14" s="6">
         <v>32</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="50">
         <v>89.5</v>
       </c>
       <c r="I14" s="8">
@@ -2977,10 +3059,10 @@
       <c r="L14" s="11">
         <v>35.96</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="50">
         <v>-1.48</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="54">
         <v>101</v>
       </c>
       <c r="O14">
@@ -2995,24 +3077,24 @@
       <c r="R14">
         <v>-16.100000000000001</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="48">
         <v>73757</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="48">
         <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="27">
         <v>75</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="42">
         <v>3</v>
       </c>
       <c r="E15" s="4">
@@ -3024,7 +3106,7 @@
       <c r="G15" s="6">
         <v>98</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="50">
         <v>76.7</v>
       </c>
       <c r="I15" s="8">
@@ -3039,10 +3121,10 @@
       <c r="L15" s="11">
         <v>2221.5</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="50">
         <v>0.84</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="54">
         <v>103</v>
       </c>
       <c r="O15">
@@ -3057,22 +3139,22 @@
       <c r="R15">
         <v>-4</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="48">
         <v>10606865</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="48">
         <v>160.9</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="46"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="4">
         <v>56</v>
       </c>
@@ -3080,7 +3162,7 @@
         <v>8610</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="8">
         <v>0.01</v>
       </c>
@@ -3093,10 +3175,10 @@
       <c r="L16" s="11">
         <v>60.67</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="50">
         <v>-1</v>
       </c>
-      <c r="N16" s="61"/>
+      <c r="N16" s="54"/>
       <c r="O16">
         <v>-16.170000000000002</v>
       </c>
@@ -3109,52 +3191,52 @@
       <c r="R16">
         <v>-8.6</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="48">
         <v>111219</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="48">
         <v>1.5109999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="4"/>
       <c r="F17" s="12">
         <v>21780</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="57"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="61"/>
-      <c r="S17" s="55">
+      <c r="M17" s="50"/>
+      <c r="N17" s="54"/>
+      <c r="S17" s="48">
         <v>402119</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="48">
         <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="27">
         <v>40</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="42">
         <v>3</v>
       </c>
       <c r="E18" s="4">
@@ -3166,7 +3248,7 @@
       <c r="G18" s="11">
         <v>17</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="50">
         <v>73.8</v>
       </c>
       <c r="I18" s="8">
@@ -3181,10 +3263,10 @@
       <c r="L18" s="11">
         <v>104.2</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="50">
         <v>9.02</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="54">
         <v>181</v>
       </c>
       <c r="O18">
@@ -3199,24 +3281,24 @@
       <c r="R18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="48">
         <v>10485800</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="48">
         <v>19.36</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="27">
         <v>80</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="42">
         <v>3</v>
       </c>
       <c r="E19" s="4"/>
@@ -3226,7 +3308,7 @@
       <c r="G19" s="11">
         <v>89</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="50">
         <v>79.5</v>
       </c>
       <c r="I19" s="8">
@@ -3241,10 +3323,10 @@
       <c r="L19" s="11">
         <v>794.48</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="50">
         <v>3.68</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="54">
         <v>67</v>
       </c>
       <c r="O19">
@@ -3259,22 +3341,22 @@
       <c r="R19">
         <v>-13.1</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="48">
         <v>2970340</v>
       </c>
-      <c r="T19" s="55">
+      <c r="T19" s="48">
         <v>25.39</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4">
         <v>39</v>
       </c>
@@ -3282,7 +3364,7 @@
         <v>24118</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="8">
         <v>1.25</v>
       </c>
@@ -3293,40 +3375,40 @@
         <v>1.25</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="61"/>
-      <c r="S20" s="55">
+      <c r="M20" s="50"/>
+      <c r="N20" s="54"/>
+      <c r="S20" s="48">
         <v>385552</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="48">
         <v>10.7</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="46"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
       <c r="F21" s="12">
         <v>12407</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
       <c r="L21" s="11">
         <v>4.1500000000000004</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="50">
         <v>-1.18</v>
       </c>
-      <c r="N21" s="61"/>
+      <c r="N21" s="54"/>
       <c r="O21">
         <v>-52.23</v>
       </c>
@@ -3339,28 +3421,28 @@
       <c r="R21">
         <v>-11.8</v>
       </c>
-      <c r="S21" s="55">
+      <c r="S21" s="48">
         <v>5267</v>
       </c>
-      <c r="T21" s="55">
+      <c r="T21" s="48">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="4"/>
       <c r="F22" s="12">
         <v>15900</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="57"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="8">
         <v>0.98</v>
       </c>
@@ -3373,58 +3455,58 @@
       <c r="L22" s="11">
         <v>78.16</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="61"/>
-      <c r="S22" s="55">
+      <c r="M22" s="50"/>
+      <c r="N22" s="54"/>
+      <c r="S22" s="48">
         <v>3578056</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="48">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5">
         <v>23600</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="8"/>
       <c r="J23" s="14"/>
       <c r="K23" s="10"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="61"/>
-      <c r="S23" s="54">
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
+      <c r="S23" s="47">
         <v>1920</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="46"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="4"/>
       <c r="F24" s="12">
         <v>15645</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="57"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="8">
         <v>0.17</v>
       </c>
@@ -3437,10 +3519,10 @@
       <c r="L24" s="11">
         <v>75.67</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="50">
         <v>-1.72</v>
       </c>
-      <c r="N24" s="61"/>
+      <c r="N24" s="54"/>
       <c r="O24">
         <v>-9.81</v>
       </c>
@@ -3453,24 +3535,24 @@
       <c r="R24">
         <v>-4.2</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="48">
         <v>52329</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="48">
         <v>1.427</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="27">
         <v>65</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="4">
         <v>60</v>
       </c>
@@ -3478,7 +3560,7 @@
         <v>7761</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="57">
+      <c r="H25" s="50">
         <v>82.3</v>
       </c>
       <c r="I25" s="8">
@@ -3493,10 +3575,10 @@
       <c r="L25" s="11">
         <v>95.03</v>
       </c>
-      <c r="M25" s="57">
+      <c r="M25" s="50">
         <v>-0.26</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="54"/>
       <c r="O25">
         <v>-1.37</v>
       </c>
@@ -3509,24 +3591,24 @@
       <c r="R25">
         <v>11.6</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="48">
         <v>164464</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="48">
         <v>2.0830000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="27">
         <v>75</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="4">
         <v>60</v>
       </c>
@@ -3536,7 +3618,7 @@
       <c r="G26" s="11">
         <v>28</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="50">
         <v>82.9</v>
       </c>
       <c r="I26" s="8"/>
@@ -3545,10 +3627,10 @@
       <c r="L26" s="11">
         <v>120.74</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="50">
         <v>-1.73</v>
       </c>
-      <c r="N26" s="61"/>
+      <c r="N26" s="54"/>
       <c r="O26">
         <v>-30.65</v>
       </c>
@@ -3561,64 +3643,64 @@
       <c r="R26">
         <v>-5</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="48">
         <v>102350</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T26" s="48">
         <v>1.2410000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="4"/>
       <c r="F27" s="12">
         <v>27700</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="57"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="61"/>
-      <c r="S27" s="55">
+      <c r="M27" s="50"/>
+      <c r="N27" s="54"/>
+      <c r="S27" s="48">
         <v>7209</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="48">
         <v>0.191</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12">
         <v>19300</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="57"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="57">
+      <c r="M28" s="50">
         <v>0</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="54"/>
       <c r="O28">
         <v>0.86</v>
       </c>
@@ -3631,82 +3713,82 @@
       <c r="R28">
         <v>-2.6</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="48">
         <v>31949</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="48">
         <v>561.5</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5">
         <v>26400</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="58"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="8"/>
       <c r="J29" s="14"/>
       <c r="K29" s="10"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="61"/>
-      <c r="S29" s="54">
+      <c r="M29" s="51"/>
+      <c r="N29" s="54"/>
+      <c r="S29" s="47">
         <v>3960</v>
       </c>
-      <c r="T29" s="54">
+      <c r="T29" s="47">
         <v>0.104</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="4"/>
       <c r="F30" s="12">
         <v>27789</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="57"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11">
         <v>10.76</v>
       </c>
-      <c r="M30" s="57"/>
-      <c r="N30" s="61"/>
-      <c r="S30" s="55">
+      <c r="M30" s="50"/>
+      <c r="N30" s="54"/>
+      <c r="S30" s="48">
         <v>74852</v>
       </c>
-      <c r="T30" s="55">
+      <c r="T30" s="48">
         <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="27">
         <v>60</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="4">
         <v>35</v>
       </c>
@@ -3716,7 +3798,7 @@
       <c r="G31" s="11">
         <v>99</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="50">
         <v>75.900000000000006</v>
       </c>
       <c r="I31" s="8">
@@ -3731,10 +3813,10 @@
       <c r="L31" s="11">
         <v>1618.61</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="50">
         <v>4.66</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31" s="54">
         <v>96</v>
       </c>
       <c r="O31">
@@ -3749,36 +3831,36 @@
       <c r="R31">
         <v>-6</v>
       </c>
-      <c r="S31" s="54">
+      <c r="S31" s="47">
         <v>1220479</v>
       </c>
-      <c r="T31" s="54">
+      <c r="T31" s="47">
         <v>43.57</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="46"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5">
         <v>23592</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="58"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="8"/>
       <c r="J32" s="14"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="58">
+      <c r="M32" s="51">
         <v>-0.31</v>
       </c>
-      <c r="N32" s="61"/>
+      <c r="N32" s="54"/>
       <c r="P32">
         <v>-0.31</v>
       </c>
@@ -3788,28 +3870,28 @@
       <c r="R32">
         <v>7.3</v>
       </c>
-      <c r="S32" s="54">
+      <c r="S32" s="47">
         <v>41430</v>
       </c>
-      <c r="T32" s="54">
+      <c r="T32" s="47">
         <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35">
+      <c r="C33" s="29"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31">
         <v>36100</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="59"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="8">
         <v>0.53</v>
       </c>
@@ -3820,12 +3902,12 @@
         <v>0.67</v>
       </c>
       <c r="L33" s="16"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="62"/>
-      <c r="S33" s="54">
+      <c r="M33" s="52"/>
+      <c r="N33" s="55"/>
+      <c r="S33" s="47">
         <v>102951</v>
       </c>
-      <c r="T33" s="54">
+      <c r="T33" s="47">
         <v>3.7919999999999998</v>
       </c>
     </row>
@@ -3871,123 +3953,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="68">
+      <c r="C3" s="63"/>
+      <c r="D3" s="61">
         <v>0.35</v>
       </c>
-      <c r="E3" s="70"/>
-    </row>
-    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="E3" s="63"/>
+      <c r="I3">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3">
+        <f>5.1-4.31</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="65" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="71">
+      <c r="D4" s="64">
         <v>0.35</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="64" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="71">
+      <c r="D5" s="64">
         <v>0.3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="68">
+      <c r="C8" s="63"/>
+      <c r="D8" s="61">
         <v>0.3</v>
       </c>
-      <c r="E8" s="70"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>102</v>
       </c>
@@ -4000,11 +4090,11 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="62" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="13"/>
@@ -4013,42 +4103,42 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58">
         <v>0.35</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="70">
+      <c r="B13" s="69"/>
+      <c r="C13" s="63">
         <v>0.6</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
@@ -4059,46 +4149,46 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="61">
         <v>10</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="61">
         <v>0.83</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="64">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -4109,17 +4199,17 @@
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="64">
         <v>3</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="72" t="s">
         <v>113</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4129,30 +4219,30 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="73">
         <v>11</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="64">
         <v>0.79</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="71">
+        <v>112</v>
+      </c>
+      <c r="C24" s="64">
         <v>9</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="64">
         <v>0.76</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="64">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -4163,13 +4253,13 @@
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="64">
         <v>10</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="3">
         <v>0.74</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="64">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -4177,633 +4267,633 @@
       <c r="C26" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="61">
+        <v>0.89</v>
+      </c>
+      <c r="C32" s="61">
+        <v>1.32</v>
+      </c>
+      <c r="D32" s="61">
+        <v>1.25</v>
+      </c>
+      <c r="E32" s="61">
+        <v>21382</v>
+      </c>
+      <c r="F32" s="61">
+        <v>85.45</v>
+      </c>
+      <c r="G32" s="79">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="64">
+        <v>0.53</v>
+      </c>
+      <c r="C33" s="64">
+        <v>1.07</v>
+      </c>
+      <c r="D33" s="64">
+        <v>0.67</v>
+      </c>
+      <c r="E33" s="64">
+        <v>14253</v>
+      </c>
+      <c r="F33" s="64">
+        <v>154.06</v>
+      </c>
+      <c r="G33" s="80">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="64">
+        <v>1.38</v>
+      </c>
+      <c r="C34" s="64">
+        <v>1.26</v>
+      </c>
+      <c r="D34" s="64">
+        <v>1.31</v>
+      </c>
+      <c r="E34" s="64">
+        <v>26406</v>
+      </c>
+      <c r="F34" s="64">
+        <v>-22.57</v>
+      </c>
+      <c r="G34" s="80">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="64">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="64">
+        <v>0.96</v>
+      </c>
+      <c r="D35" s="64">
+        <v>1.29</v>
+      </c>
+      <c r="E35" s="64">
+        <v>21962</v>
+      </c>
+      <c r="F35" s="64">
+        <v>384.91</v>
+      </c>
+      <c r="G35" s="80">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="61">
+        <v>0.51</v>
+      </c>
+      <c r="C36" s="61">
+        <v>1.32</v>
+      </c>
+      <c r="D36" s="61">
+        <v>1.79</v>
+      </c>
+      <c r="E36" s="61">
+        <v>15253</v>
+      </c>
+      <c r="F36" s="61">
+        <v>254.52</v>
+      </c>
+      <c r="G36" s="79">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64">
+        <v>21000</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="80"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64">
+        <v>30880</v>
+      </c>
+      <c r="F38" s="64">
+        <v>51605</v>
+      </c>
+      <c r="G38" s="80">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="64">
+        <v>0.82</v>
+      </c>
+      <c r="C39" s="64">
+        <v>1.19</v>
+      </c>
+      <c r="D39" s="64">
+        <v>1.03</v>
+      </c>
+      <c r="E39" s="64">
+        <v>57458</v>
+      </c>
+      <c r="F39" s="64">
+        <v>18987.38</v>
+      </c>
+      <c r="G39" s="80">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="61">
+        <v>-1.25</v>
+      </c>
+      <c r="C40" s="61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D40" s="61">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E40" s="61">
+        <v>7929</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="79">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64">
+        <v>19869</v>
+      </c>
+      <c r="F41" s="64">
+        <v>175.14</v>
+      </c>
+      <c r="G41" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="64">
+        <v>0.26</v>
+      </c>
+      <c r="C42" s="64">
+        <v>1.19</v>
+      </c>
+      <c r="D42" s="64">
+        <v>0.62</v>
+      </c>
+      <c r="E42" s="64">
+        <v>7089</v>
+      </c>
+      <c r="F42" s="64">
+        <v>35.96</v>
+      </c>
+      <c r="G42" s="80">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="64">
+        <v>-0.04</v>
+      </c>
+      <c r="C43" s="64">
+        <v>0.17</v>
+      </c>
+      <c r="D43" s="64">
+        <v>-0.77</v>
+      </c>
+      <c r="E43" s="64">
+        <v>6388</v>
+      </c>
+      <c r="F43" s="64">
+        <v>2221.5</v>
+      </c>
+      <c r="G43" s="80">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="61">
+        <v>0.01</v>
+      </c>
+      <c r="C44" s="61">
+        <v>0.81</v>
+      </c>
+      <c r="D44" s="61">
+        <v>0.31</v>
+      </c>
+      <c r="E44" s="61">
+        <v>8610</v>
+      </c>
+      <c r="F44" s="61">
+        <v>60.67</v>
+      </c>
+      <c r="G44" s="79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64">
+        <v>21780</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="80"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="64">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="C46" s="64">
+        <v>-0.73</v>
+      </c>
+      <c r="D46" s="64">
+        <v>-1.26</v>
+      </c>
+      <c r="E46" s="64">
+        <v>790</v>
+      </c>
+      <c r="F46" s="64">
+        <v>104.2</v>
+      </c>
+      <c r="G46" s="80">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="64">
+        <v>0.11</v>
+      </c>
+      <c r="C47" s="64">
+        <v>0.09</v>
+      </c>
+      <c r="D47" s="64">
+        <v>-0.33</v>
+      </c>
+      <c r="E47" s="64">
+        <v>4945</v>
+      </c>
+      <c r="F47" s="64">
+        <v>794.48</v>
+      </c>
+      <c r="G47" s="80">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="61">
+        <v>1.25</v>
+      </c>
+      <c r="C48" s="61">
+        <v>1.01</v>
+      </c>
+      <c r="D48" s="61">
+        <v>1.25</v>
+      </c>
+      <c r="E48" s="61">
+        <v>24118</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="79"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64">
+        <v>12407</v>
+      </c>
+      <c r="F49" s="64">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G49" s="80">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="64">
+        <v>0.98</v>
+      </c>
+      <c r="C50" s="64">
+        <v>0.84</v>
+      </c>
+      <c r="D50" s="64">
+        <v>0.13</v>
+      </c>
+      <c r="E50" s="64">
+        <v>15900</v>
+      </c>
+      <c r="F50" s="64">
+        <v>78.16</v>
+      </c>
+      <c r="G50" s="80"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64">
+        <v>23600</v>
+      </c>
+      <c r="F51" s="64"/>
+      <c r="G51" s="80"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="61">
+        <v>0.17</v>
+      </c>
+      <c r="C52" s="61">
+        <v>0.67</v>
+      </c>
+      <c r="D52" s="61">
+        <v>0.27</v>
+      </c>
+      <c r="E52" s="61">
+        <v>15645</v>
+      </c>
+      <c r="F52" s="61">
+        <v>75.67</v>
+      </c>
+      <c r="G52" s="79">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="64">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C53" s="64">
+        <v>0.86</v>
+      </c>
+      <c r="D53" s="64">
+        <v>0.45</v>
+      </c>
+      <c r="E53" s="64">
+        <v>7761</v>
+      </c>
+      <c r="F53" s="64">
+        <v>95.03</v>
+      </c>
+      <c r="G53" s="80">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64">
+        <v>6652</v>
+      </c>
+      <c r="F54" s="64">
+        <v>120.74</v>
+      </c>
+      <c r="G54" s="80">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64">
+        <v>27700</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="80"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61">
+        <v>19300</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64">
+        <v>26400</v>
+      </c>
+      <c r="F57" s="64"/>
+      <c r="G57" s="80"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64">
+        <v>27789</v>
+      </c>
+      <c r="F58" s="64">
+        <v>10.76</v>
+      </c>
+      <c r="G58" s="80"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="64">
+        <v>0.15</v>
+      </c>
+      <c r="C59" s="64">
+        <v>0.27</v>
+      </c>
+      <c r="D59" s="64">
+        <v>-0.54</v>
+      </c>
+      <c r="E59" s="64">
+        <v>21698</v>
+      </c>
+      <c r="F59" s="64">
+        <v>1618.61</v>
+      </c>
+      <c r="G59" s="80">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61">
+        <v>23592</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="G60" s="79">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="64">
+        <v>0.53</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1.32</v>
+      </c>
+      <c r="D61" s="64">
+        <v>0.67</v>
+      </c>
+      <c r="E61" s="64">
+        <v>36100</v>
+      </c>
+      <c r="F61" s="64"/>
+      <c r="G61" s="80"/>
+    </row>
+    <row r="64" spans="1:7" s="88" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="68">
-        <v>0.89</v>
-      </c>
-      <c r="C32" s="68">
-        <v>1.32</v>
-      </c>
-      <c r="D32" s="68">
-        <v>1.25</v>
-      </c>
-      <c r="E32" s="68">
-        <v>21382</v>
-      </c>
-      <c r="F32" s="68">
-        <v>85.45</v>
-      </c>
-      <c r="G32" s="87">
-        <v>-1.86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="71">
-        <v>0.53</v>
-      </c>
-      <c r="C33" s="71">
-        <v>1.07</v>
-      </c>
-      <c r="D33" s="71">
-        <v>0.67</v>
-      </c>
-      <c r="E33" s="71">
-        <v>14253</v>
-      </c>
-      <c r="F33" s="71">
-        <v>154.06</v>
-      </c>
-      <c r="G33" s="88">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="71">
-        <v>1.38</v>
-      </c>
-      <c r="C34" s="71">
-        <v>1.26</v>
-      </c>
-      <c r="D34" s="71">
-        <v>1.31</v>
-      </c>
-      <c r="E34" s="71">
-        <v>26406</v>
-      </c>
-      <c r="F34" s="71">
-        <v>-22.57</v>
-      </c>
-      <c r="G34" s="88">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="C35" s="71">
-        <v>0.96</v>
-      </c>
-      <c r="D35" s="71">
-        <v>1.29</v>
-      </c>
-      <c r="E35" s="71">
-        <v>21962</v>
-      </c>
-      <c r="F35" s="71">
-        <v>384.91</v>
-      </c>
-      <c r="G35" s="88">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="68">
-        <v>0.51</v>
-      </c>
-      <c r="C36" s="68">
-        <v>1.32</v>
-      </c>
-      <c r="D36" s="68">
-        <v>1.79</v>
-      </c>
-      <c r="E36" s="68">
-        <v>15253</v>
-      </c>
-      <c r="F36" s="68">
-        <v>254.52</v>
-      </c>
-      <c r="G36" s="87">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71">
-        <v>21000</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="88"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71">
-        <v>30880</v>
-      </c>
-      <c r="F38" s="71">
-        <v>51605</v>
-      </c>
-      <c r="G38" s="88">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="71">
-        <v>0.82</v>
-      </c>
-      <c r="C39" s="71">
-        <v>1.19</v>
-      </c>
-      <c r="D39" s="71">
-        <v>1.03</v>
-      </c>
-      <c r="E39" s="71">
-        <v>57458</v>
-      </c>
-      <c r="F39" s="71">
-        <v>18987.38</v>
-      </c>
-      <c r="G39" s="88">
-        <v>-2.93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="68">
-        <v>-1.25</v>
-      </c>
-      <c r="C40" s="68">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D40" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E40" s="68">
-        <v>7929</v>
-      </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="87">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71">
-        <v>19869</v>
-      </c>
-      <c r="F41" s="71">
-        <v>175.14</v>
-      </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="71">
-        <v>0.26</v>
-      </c>
-      <c r="C42" s="71">
-        <v>1.19</v>
-      </c>
-      <c r="D42" s="71">
-        <v>0.62</v>
-      </c>
-      <c r="E42" s="71">
-        <v>7089</v>
-      </c>
-      <c r="F42" s="71">
-        <v>35.96</v>
-      </c>
-      <c r="G42" s="88">
-        <v>-1.48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="71">
-        <v>-0.04</v>
-      </c>
-      <c r="C43" s="71">
-        <v>0.17</v>
-      </c>
-      <c r="D43" s="71">
-        <v>-0.77</v>
-      </c>
-      <c r="E43" s="71">
-        <v>6388</v>
-      </c>
-      <c r="F43" s="71">
-        <v>2221.5</v>
-      </c>
-      <c r="G43" s="88">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C44" s="68">
-        <v>0.81</v>
-      </c>
-      <c r="D44" s="68">
-        <v>0.31</v>
-      </c>
-      <c r="E44" s="68">
-        <v>8610</v>
-      </c>
-      <c r="F44" s="68">
-        <v>60.67</v>
-      </c>
-      <c r="G44" s="87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71">
-        <v>21780</v>
-      </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="88"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="71">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="C46" s="71">
-        <v>-0.73</v>
-      </c>
-      <c r="D46" s="71">
-        <v>-1.26</v>
-      </c>
-      <c r="E46" s="71">
-        <v>790</v>
-      </c>
-      <c r="F46" s="71">
-        <v>104.2</v>
-      </c>
-      <c r="G46" s="88">
-        <v>9.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="71">
-        <v>0.11</v>
-      </c>
-      <c r="C47" s="71">
-        <v>0.09</v>
-      </c>
-      <c r="D47" s="71">
-        <v>-0.33</v>
-      </c>
-      <c r="E47" s="71">
-        <v>4945</v>
-      </c>
-      <c r="F47" s="71">
-        <v>794.48</v>
-      </c>
-      <c r="G47" s="88">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="68">
-        <v>1.25</v>
-      </c>
-      <c r="C48" s="68">
-        <v>1.01</v>
-      </c>
-      <c r="D48" s="68">
-        <v>1.25</v>
-      </c>
-      <c r="E48" s="68">
-        <v>24118</v>
-      </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="87"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71">
-        <v>12407</v>
-      </c>
-      <c r="F49" s="71">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G49" s="88">
-        <v>-1.18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="71">
-        <v>0.98</v>
-      </c>
-      <c r="C50" s="71">
-        <v>0.84</v>
-      </c>
-      <c r="D50" s="71">
-        <v>0.13</v>
-      </c>
-      <c r="E50" s="71">
-        <v>15900</v>
-      </c>
-      <c r="F50" s="71">
-        <v>78.16</v>
-      </c>
-      <c r="G50" s="88"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71">
-        <v>23600</v>
-      </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="88"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="68">
-        <v>0.17</v>
-      </c>
-      <c r="C52" s="68">
-        <v>0.67</v>
-      </c>
-      <c r="D52" s="68">
-        <v>0.27</v>
-      </c>
-      <c r="E52" s="68">
-        <v>15645</v>
-      </c>
-      <c r="F52" s="68">
-        <v>75.67</v>
-      </c>
-      <c r="G52" s="87">
-        <v>-1.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="71">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C53" s="71">
-        <v>0.86</v>
-      </c>
-      <c r="D53" s="71">
-        <v>0.45</v>
-      </c>
-      <c r="E53" s="71">
-        <v>7761</v>
-      </c>
-      <c r="F53" s="71">
-        <v>95.03</v>
-      </c>
-      <c r="G53" s="88">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71">
-        <v>6652</v>
-      </c>
-      <c r="F54" s="71">
-        <v>120.74</v>
-      </c>
-      <c r="G54" s="88">
-        <v>-1.73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71">
-        <v>27700</v>
-      </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="88"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68">
-        <v>19300</v>
-      </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71">
-        <v>26400</v>
-      </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="88"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71">
-        <v>27789</v>
-      </c>
-      <c r="F58" s="71">
-        <v>10.76</v>
-      </c>
-      <c r="G58" s="88"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="71">
-        <v>0.15</v>
-      </c>
-      <c r="C59" s="71">
-        <v>0.27</v>
-      </c>
-      <c r="D59" s="71">
-        <v>-0.54</v>
-      </c>
-      <c r="E59" s="71">
-        <v>21698</v>
-      </c>
-      <c r="F59" s="71">
-        <v>1618.61</v>
-      </c>
-      <c r="G59" s="88">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68">
-        <v>23592</v>
-      </c>
-      <c r="F60" s="68"/>
-      <c r="G60" s="87">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="71">
-        <v>0.53</v>
-      </c>
-      <c r="C61" s="71">
-        <v>1.32</v>
-      </c>
-      <c r="D61" s="71">
-        <v>0.67</v>
-      </c>
-      <c r="E61" s="71">
-        <v>36100</v>
-      </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="88"/>
-    </row>
-    <row r="64" spans="1:7" s="96" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="93">
+      <c r="B65" s="85">
         <v>4.3141042594369097</v>
       </c>
-      <c r="C65" s="93">
+      <c r="C65" s="85">
         <v>2.7154984052125601</v>
       </c>
-      <c r="D65" s="93">
+      <c r="D65" s="85">
         <v>3.3549407469023</v>
       </c>
       <c r="E65">
@@ -4811,16 +4901,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="92">
+      <c r="B66" s="84">
         <v>4.7701719312275097</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="84">
         <v>1.94194161515668</v>
       </c>
-      <c r="D66" s="92">
+      <c r="D66" s="84">
         <v>3.0732337415850099</v>
       </c>
       <c r="E66">
@@ -4828,16 +4918,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="92">
+      <c r="B67" s="84">
         <v>4.1068727794053501</v>
       </c>
-      <c r="C67" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="98">
+      <c r="C67" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="90">
         <v>3.0105508829637899</v>
       </c>
       <c r="E67">
@@ -4845,16 +4935,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="93">
+      <c r="B68" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="85">
         <v>3.4788586475789498</v>
       </c>
-      <c r="D68" s="99">
+      <c r="D68" s="91">
         <v>2.8718965042695501</v>
       </c>
       <c r="E68">
@@ -4862,16 +4952,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="92">
+      <c r="B69" s="84">
         <v>3.9559041174404799</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="84">
         <v>2.0205589892941802</v>
       </c>
-      <c r="D69" s="92">
+      <c r="D69" s="84">
         <v>2.7946970405527001</v>
       </c>
       <c r="E69">
@@ -4879,16 +4969,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="98">
+      <c r="B70" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="90">
         <v>2.7897929248550102</v>
       </c>
       <c r="E70">
@@ -4896,16 +4986,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="98">
+      <c r="B71" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="90">
         <v>2.7874288942604202</v>
       </c>
       <c r="E71">
@@ -4913,16 +5003,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="99">
+      <c r="B72" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="91">
         <v>2.7528981102944199</v>
       </c>
       <c r="E72">
@@ -4930,16 +5020,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="92">
+      <c r="B73" s="84">
         <v>4.5267044817054201</v>
       </c>
-      <c r="C73" s="92">
+      <c r="C73" s="84">
         <v>1.56434048086624</v>
       </c>
-      <c r="D73" s="93">
+      <c r="D73" s="85">
         <v>2.7492860812019102</v>
       </c>
       <c r="E73">
@@ -4947,16 +5037,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="92">
+      <c r="B74" s="84">
         <v>4.5368821292775703</v>
       </c>
-      <c r="C74" s="92">
+      <c r="C74" s="84">
         <v>1.51645984310309</v>
       </c>
-      <c r="D74" s="100">
+      <c r="D74" s="92">
         <v>2.72462875757288</v>
       </c>
       <c r="E74">
@@ -4964,16 +5054,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="92">
+      <c r="B75" s="84">
         <v>4.5066321456208396</v>
       </c>
-      <c r="C75" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="98">
+      <c r="C75" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="90">
         <v>2.69228330336334</v>
       </c>
       <c r="E75">
@@ -4981,16 +5071,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="99">
+      <c r="B76" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="91">
         <v>2.67852411405996</v>
       </c>
       <c r="E76">
@@ -4998,16 +5088,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="98">
+      <c r="B77" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="90">
         <v>2.67831161692787</v>
       </c>
       <c r="E77">
@@ -5015,16 +5105,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="97">
+      <c r="B78" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="89">
         <v>2.6301810165075699</v>
       </c>
       <c r="E78">
@@ -5032,16 +5122,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="98">
+      <c r="B79" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="90">
         <v>2.6094625461279701</v>
       </c>
       <c r="E79">
@@ -5049,16 +5139,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="93">
+      <c r="B80" s="85">
         <v>3.9361410720882799</v>
       </c>
-      <c r="C80" s="93">
+      <c r="C80" s="85">
         <v>1.7174969059002201</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="85">
         <v>2.6049545723754401</v>
       </c>
       <c r="E80">
@@ -5066,16 +5156,16 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="92">
+      <c r="A81" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="84">
         <v>1.7526413346306</v>
       </c>
-      <c r="D81" s="88">
+      <c r="D81" s="80">
         <v>2.5794207640775499</v>
       </c>
       <c r="E81">
@@ -5083,16 +5173,16 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="98">
+      <c r="B82" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="90">
         <v>2.56430690555705</v>
       </c>
       <c r="E82">
@@ -5100,16 +5190,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="92">
+      <c r="B83" s="84">
         <v>2.7114526660818599</v>
       </c>
-      <c r="C83" s="92">
+      <c r="C83" s="84">
         <v>2.3764566111488898</v>
       </c>
-      <c r="D83" s="92">
+      <c r="D83" s="84">
         <v>2.5104550331220801</v>
       </c>
       <c r="E83">
@@ -5117,16 +5207,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="93">
+      <c r="B84" s="85">
         <v>3.8061526111988702</v>
       </c>
-      <c r="C84" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="98">
+      <c r="C84" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="90">
         <v>2.4739956244152101</v>
       </c>
       <c r="E84">
@@ -5134,16 +5224,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="92">
+      <c r="B85" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="84">
         <v>1.45174676515912</v>
       </c>
-      <c r="D85" s="98">
+      <c r="D85" s="90">
         <v>2.3812140641127302</v>
       </c>
       <c r="E85">
@@ -5151,16 +5241,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="92">
+      <c r="B86" s="84">
         <v>3.85469392471148</v>
       </c>
-      <c r="C86" s="92">
+      <c r="C86" s="84">
         <v>1.3048491019189099</v>
       </c>
-      <c r="D86" s="92">
+      <c r="D86" s="84">
         <v>2.3247870310359402</v>
       </c>
       <c r="E86">
@@ -5168,16 +5258,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="92">
+      <c r="B87" s="84">
         <v>3.5730892129840099</v>
       </c>
-      <c r="C87" s="92">
+      <c r="C87" s="84">
         <v>1.46361004418082</v>
       </c>
-      <c r="D87" s="92">
+      <c r="D87" s="84">
         <v>2.3074017117021</v>
       </c>
       <c r="E87">
@@ -5185,16 +5275,16 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="93">
+      <c r="B88" s="85">
         <v>2.4179128348660499</v>
       </c>
-      <c r="C88" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="98">
+      <c r="C88" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="90">
         <v>2.2622687944206201</v>
       </c>
       <c r="E88">
@@ -5202,16 +5292,16 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B89" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="92">
+      <c r="B89" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="84">
         <v>1.2686055032766601</v>
       </c>
-      <c r="D89" s="98">
+      <c r="D89" s="90">
         <v>2.2283489397094098</v>
       </c>
       <c r="E89">
@@ -5219,16 +5309,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="92">
+      <c r="B90" s="84">
         <v>3.31395831021204</v>
       </c>
-      <c r="C90" s="92">
+      <c r="C90" s="84">
         <v>1.45899039411242</v>
       </c>
-      <c r="D90" s="92">
+      <c r="D90" s="84">
         <v>2.2009775605522699</v>
       </c>
       <c r="E90">
@@ -5236,16 +5326,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="92">
+      <c r="B91" s="84">
         <v>2.6498560119678398</v>
       </c>
-      <c r="C91" s="92">
+      <c r="C91" s="84">
         <v>1.8845356556252999</v>
       </c>
-      <c r="D91" s="92">
+      <c r="D91" s="84">
         <v>2.19066379816232</v>
       </c>
       <c r="E91">
@@ -5253,16 +5343,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="93">
+      <c r="B92" s="85">
         <v>3.34013466856603</v>
       </c>
-      <c r="C92" s="93">
+      <c r="C92" s="85">
         <v>1.3939621337938899</v>
       </c>
-      <c r="D92" s="93">
+      <c r="D92" s="85">
         <v>2.17243114770275</v>
       </c>
       <c r="E92">
@@ -5270,16 +5360,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="92">
+      <c r="B93" s="84">
         <v>2.4515274954656898</v>
       </c>
-      <c r="C93" s="92">
+      <c r="C93" s="84">
         <v>1.6210698394699301</v>
       </c>
-      <c r="D93" s="92">
+      <c r="D93" s="84">
         <v>1.9532529018682401</v>
       </c>
       <c r="E93">
@@ -5287,16 +5377,16 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="100">
+      <c r="B94" s="92">
         <v>1.0479087452471501</v>
       </c>
-      <c r="C94" s="100">
+      <c r="C94" s="92">
         <v>2.4034376593746298</v>
       </c>
-      <c r="D94" s="92">
+      <c r="D94" s="84">
         <v>1.86122609372364</v>
       </c>
       <c r="E94">
@@ -5317,12 +5407,12 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
@@ -5335,30 +5425,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -5373,7 +5463,7 @@
       <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -5402,259 +5492,259 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="48" t="s">
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="G26" s="48" t="s">
+      <c r="E26" s="44"/>
+      <c r="G26" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="G27" s="48" t="s">
+      <c r="E27" s="44"/>
+      <c r="G27" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="48"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="44" t="s">
         <v>63</v>
       </c>
     </row>

--- a/economic/economic_parameters_full.xlsx
+++ b/economic/economic_parameters_full.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1240" windowWidth="43840" windowHeight="18620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18060" yWindow="2360" windowWidth="43840" windowHeight="18620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,6 +1114,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,94 +1341,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>2.26226879442062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1830073641479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.43024777734444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.45680991885675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.57942076407755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07264166616427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.63501532626281</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.61960928418567</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.43024777734444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.75305748314349</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.63501532626281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.45680991885675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.60946254612797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.87189650426955</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.57786510138361</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.26226879442062</c:v>
+                  <c:v>2.78742889426042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.57942076407755</c:v>
+                  <c:v>2.69228330336334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.23995659555028</c:v>
+                  <c:v>2.25780635464655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.22133653435016</c:v>
+                  <c:v>2.67831161692787</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2803576127905</c:v>
+                  <c:v>2.62800292090356</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.63018101650757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.07264166616427</c:v>
+                  <c:v>3.01055088296379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1830073641479</c:v>
+                  <c:v>2.78979292485501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.69228330336334</c:v>
+                  <c:v>2.23995659555028</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2.46722227832957</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.67852411405996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.22133653435016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75289811029442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.22834893970941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.56430690555705</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.87189650426955</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2.38121406411273</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
+                  <c:v>3.57786510138361</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.60946254612797</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2.47399562441521</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.67852411405996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.46722227832957</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.25780635464655</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.22834893970941</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.78742889426042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.56430690555705</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.75289811029442</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.78979292485501</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.62800292090356</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.67831161692787</c:v>
+                  <c:v>2.2803576127905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.01055088296379</c:v>
+                  <c:v>2.75305748314349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,11 +1443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1086606064"/>
-        <c:axId val="1086207616"/>
+        <c:axId val="634256272"/>
+        <c:axId val="640986784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1086606064"/>
+        <c:axId val="634256272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,12 +1503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086207616"/>
+        <c:crossAx val="640986784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1086207616"/>
+        <c:axId val="640986784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086606064"/>
+        <c:crossAx val="634256272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3955,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3993,7 +3996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>95</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
@@ -4090,7 +4093,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -4266,7 +4269,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82" t="s">
         <v>0</v>
       </c>
@@ -4885,92 +4888,92 @@
     </row>
     <row r="65" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A65" s="81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B65" s="85">
-        <v>4.3141042594369097</v>
+        <v>4.5267044817054201</v>
       </c>
       <c r="C65" s="85">
-        <v>2.7154984052125601</v>
+        <v>1.56434048086624</v>
       </c>
       <c r="D65" s="85">
-        <v>3.3549407469023</v>
+        <v>2.7492860812019102</v>
       </c>
       <c r="E65">
-        <v>2.6196092841856702</v>
+        <v>2.2622687944206201</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="84">
-        <v>4.7701719312275097</v>
+        <v>3.9361410720882799</v>
       </c>
       <c r="C66" s="84">
-        <v>1.94194161515668</v>
+        <v>1.7174969059002201</v>
       </c>
       <c r="D66" s="84">
-        <v>3.0732337415850099</v>
+        <v>2.6049545723754401</v>
       </c>
       <c r="E66">
-        <v>2.43024777734444</v>
+        <v>2.1830073641479002</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B67" s="84">
-        <v>4.1068727794053501</v>
-      </c>
-      <c r="C67" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="90">
-        <v>3.0105508829637899</v>
+        <v>4.7701719312275097</v>
+      </c>
+      <c r="C67" s="84">
+        <v>1.94194161515668</v>
+      </c>
+      <c r="D67" s="84">
+        <v>3.0732337415850099</v>
       </c>
       <c r="E67">
-        <v>2.7530574831434902</v>
+        <v>2.43024777734444</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="85" t="s">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="B68" s="85">
+        <v>3.9559041174404799</v>
       </c>
       <c r="C68" s="85">
-        <v>3.4788586475789498</v>
-      </c>
-      <c r="D68" s="91">
-        <v>2.8718965042695501</v>
+        <v>2.0205589892941802</v>
+      </c>
+      <c r="D68" s="85">
+        <v>2.7946970405527001</v>
       </c>
       <c r="E68">
-        <v>2.6350153262628102</v>
+        <v>2.45680991885675</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="84">
-        <v>3.9559041174404799</v>
+        <v>4.5368821292775703</v>
       </c>
       <c r="C69" s="84">
-        <v>2.0205589892941802</v>
+        <v>1.51645984310309</v>
       </c>
       <c r="D69" s="84">
-        <v>2.7946970405527001</v>
+        <v>2.72462875757288</v>
       </c>
       <c r="E69">
-        <v>2.45680991885675</v>
+        <v>2.5794207640775499</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B70" s="84" t="s">
         <v>110</v>
@@ -4979,129 +4982,129 @@
         <v>110</v>
       </c>
       <c r="D70" s="90">
-        <v>2.7897929248550102</v>
+        <v>2.6094625461279701</v>
       </c>
       <c r="E70">
-        <v>2.6094625461279701</v>
+        <v>2.0726416661642699</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B71" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="84" t="s">
-        <v>110</v>
+      <c r="C71" s="84">
+        <v>3.4788586475789498</v>
       </c>
       <c r="D71" s="90">
-        <v>2.7874288942604202</v>
+        <v>2.8718965042695501</v>
       </c>
       <c r="E71">
-        <v>2.8718965042695501</v>
+        <v>2.6350153262628102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="91">
-        <v>2.7528981102944199</v>
+        <v>21</v>
+      </c>
+      <c r="B72" s="85">
+        <v>4.3141042594369097</v>
+      </c>
+      <c r="C72" s="85">
+        <v>2.7154984052125601</v>
+      </c>
+      <c r="D72" s="85">
+        <v>3.3549407469023</v>
       </c>
       <c r="E72">
-        <v>3.57786510138361</v>
+        <v>2.6196092841856702</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B73" s="84">
-        <v>4.5267044817054201</v>
-      </c>
-      <c r="C73" s="84">
-        <v>1.56434048086624</v>
-      </c>
-      <c r="D73" s="85">
-        <v>2.7492860812019102</v>
+        <v>2.4179128348660499</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="91">
+        <v>2.2622687944206201</v>
       </c>
       <c r="E73">
-        <v>2.2622687944206201</v>
+        <v>2.7874288942604202</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="84">
-        <v>4.5368821292775703</v>
+        <v>117</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>110</v>
       </c>
       <c r="C74" s="84">
-        <v>1.51645984310309</v>
-      </c>
-      <c r="D74" s="92">
-        <v>2.72462875757288</v>
+        <v>1.7526413346306</v>
+      </c>
+      <c r="D74" s="101">
+        <v>2.5794207640775499</v>
       </c>
       <c r="E74">
-        <v>2.5794207640775499</v>
+        <v>2.69228330336334</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B75" s="84">
-        <v>4.5066321456208396</v>
-      </c>
-      <c r="C75" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="90">
-        <v>2.69228330336334</v>
+        <v>3.85469392471148</v>
+      </c>
+      <c r="C75" s="84">
+        <v>1.3048491019189099</v>
+      </c>
+      <c r="D75" s="84">
+        <v>2.3247870310359402</v>
       </c>
       <c r="E75">
-        <v>2.23995659555028</v>
+        <v>2.2578063546465499</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="91">
-        <v>2.67852411405996</v>
+        <v>25</v>
+      </c>
+      <c r="B76" s="85">
+        <v>2.4515274954656898</v>
+      </c>
+      <c r="C76" s="85">
+        <v>1.6210698394699301</v>
+      </c>
+      <c r="D76" s="85">
+        <v>1.9532529018682401</v>
       </c>
       <c r="E76">
-        <v>2.2213365343501601</v>
+        <v>2.67831161692787</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" s="90">
-        <v>2.67831161692787</v>
+        <v>26</v>
+      </c>
+      <c r="B77" s="84">
+        <v>3.34013466856603</v>
+      </c>
+      <c r="C77" s="84">
+        <v>1.3939621337938899</v>
+      </c>
+      <c r="D77" s="84">
+        <v>2.17243114770275</v>
       </c>
       <c r="E77">
-        <v>2.2803576127905001</v>
+        <v>2.62800292090356</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5123,279 +5126,283 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="90">
-        <v>2.6094625461279701</v>
+        <v>28</v>
+      </c>
+      <c r="B79" s="84">
+        <v>1.0479087452471501</v>
+      </c>
+      <c r="C79" s="84">
+        <v>2.4034376593746298</v>
+      </c>
+      <c r="D79" s="84">
+        <v>1.86122609372364</v>
       </c>
       <c r="E79">
-        <v>2.0726416661642699</v>
+        <v>3.0105508829637899</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B80" s="85">
-        <v>3.9361410720882799</v>
+        <v>2.6498560119678398</v>
       </c>
       <c r="C80" s="85">
-        <v>1.7174969059002201</v>
+        <v>1.8845356556252999</v>
       </c>
       <c r="D80" s="85">
-        <v>2.6049545723754401</v>
+        <v>2.19066379816232</v>
       </c>
       <c r="E80">
-        <v>2.1830073641479002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.7897929248550102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="84">
+        <v>4.5066321456208396</v>
+      </c>
+      <c r="C81" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="84">
-        <v>1.7526413346306</v>
-      </c>
-      <c r="D81" s="80">
-        <v>2.5794207640775499</v>
+      <c r="D81" s="90">
+        <v>2.69228330336334</v>
       </c>
       <c r="E81">
-        <v>2.69228330336334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.23995659555028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B82" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="84" t="s">
+      <c r="C82" s="84">
+        <v>1.45174676515912</v>
+      </c>
+      <c r="D82" s="90">
+        <v>2.3812140641127302</v>
+      </c>
+      <c r="E82">
+        <v>2.4672222783295701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="84">
+        <v>3.8061526111988702</v>
+      </c>
+      <c r="C83" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="90">
-        <v>2.56430690555705</v>
-      </c>
-      <c r="E82">
-        <v>2.3812140641127302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="84">
-        <v>2.7114526660818599</v>
-      </c>
-      <c r="C83" s="84">
-        <v>2.3764566111488898</v>
-      </c>
-      <c r="D83" s="84">
-        <v>2.5104550331220801</v>
+      <c r="D83" s="90">
+        <v>2.4739956244152101</v>
       </c>
       <c r="E83">
-        <v>2.4739956244152101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.67852411405996</v>
+      </c>
+      <c r="H83">
+        <f>190/2</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="85">
-        <v>3.8061526111988702</v>
+        <v>33</v>
+      </c>
+      <c r="B84" s="85" t="s">
+        <v>110</v>
       </c>
       <c r="C84" s="85" t="s">
         <v>110</v>
       </c>
       <c r="D84" s="90">
-        <v>2.4739956244152101</v>
+        <v>2.67852411405996</v>
       </c>
       <c r="E84">
-        <v>2.67852411405996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.2213365343501601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="84">
+        <v>3.31395831021204</v>
+      </c>
+      <c r="C85" s="84">
+        <v>1.45899039411242</v>
+      </c>
+      <c r="D85" s="84">
+        <v>2.2009775605522699</v>
+      </c>
+      <c r="E85">
+        <v>2.7528981102944199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="84">
+        <v>3.5730892129840099</v>
+      </c>
+      <c r="C86" s="84">
+        <v>1.46361004418082</v>
+      </c>
+      <c r="D86" s="84">
+        <v>2.3074017117021</v>
+      </c>
+      <c r="E86">
+        <v>2.2283489397094098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="84">
-        <v>1.45174676515912</v>
-      </c>
-      <c r="D85" s="90">
-        <v>2.3812140641127302</v>
-      </c>
-      <c r="E85">
-        <v>2.4672222783295701</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" s="84">
-        <v>3.85469392471148</v>
-      </c>
-      <c r="C86" s="84">
-        <v>1.3048491019189099</v>
-      </c>
-      <c r="D86" s="84">
-        <v>2.3247870310359402</v>
-      </c>
-      <c r="E86">
-        <v>2.2578063546465499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="84">
-        <v>3.5730892129840099</v>
-      </c>
       <c r="C87" s="84">
-        <v>1.46361004418082</v>
-      </c>
-      <c r="D87" s="84">
-        <v>2.3074017117021</v>
+        <v>1.2686055032766601</v>
+      </c>
+      <c r="D87" s="90">
+        <v>2.2283489397094098</v>
       </c>
       <c r="E87">
-        <v>2.2283489397094098</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.56430690555705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="85">
-        <v>2.4179128348660499</v>
+        <v>37</v>
+      </c>
+      <c r="B88" s="85" t="s">
+        <v>110</v>
       </c>
       <c r="C88" s="85" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="90">
-        <v>2.2622687944206201</v>
+        <v>2.7874288942604202</v>
       </c>
       <c r="E88">
-        <v>2.7874288942604202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.8718965042695501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B89" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="84">
-        <v>1.2686055032766601</v>
+      <c r="C89" s="84" t="s">
+        <v>110</v>
       </c>
       <c r="D89" s="90">
-        <v>2.2283489397094098</v>
+        <v>2.56430690555705</v>
       </c>
       <c r="E89">
-        <v>2.56430690555705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.3812140641127302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="84">
-        <v>3.31395831021204</v>
-      </c>
-      <c r="C90" s="84">
-        <v>1.45899039411242</v>
-      </c>
-      <c r="D90" s="84">
-        <v>2.2009775605522699</v>
+        <v>39</v>
+      </c>
+      <c r="B90" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="90">
+        <v>2.7528981102944199</v>
       </c>
       <c r="E90">
-        <v>2.7528981102944199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.57786510138361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="84">
-        <v>2.6498560119678398</v>
-      </c>
-      <c r="C91" s="84">
-        <v>1.8845356556252999</v>
-      </c>
-      <c r="D91" s="84">
-        <v>2.19066379816232</v>
+        <v>40</v>
+      </c>
+      <c r="B91" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="90">
+        <v>2.7897929248550102</v>
       </c>
       <c r="E91">
-        <v>2.7897929248550102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.6094625461279701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B92" s="85">
-        <v>3.34013466856603</v>
+        <v>2.7114526660818599</v>
       </c>
       <c r="C92" s="85">
-        <v>1.3939621337938899</v>
+        <v>2.3764566111488898</v>
       </c>
       <c r="D92" s="85">
-        <v>2.17243114770275</v>
+        <v>2.5104550331220801</v>
       </c>
       <c r="E92">
-        <v>2.62800292090356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.4739956244152101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="84">
-        <v>2.4515274954656898</v>
-      </c>
-      <c r="C93" s="84">
-        <v>1.6210698394699301</v>
-      </c>
-      <c r="D93" s="84">
-        <v>1.9532529018682401</v>
+        <v>42</v>
+      </c>
+      <c r="B93" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="90">
+        <v>2.67831161692787</v>
       </c>
       <c r="E93">
-        <v>2.67831161692787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.2803576127905001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="34" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B94" s="92">
-        <v>1.0479087452471501</v>
-      </c>
-      <c r="C94" s="92">
-        <v>2.4034376593746298</v>
-      </c>
-      <c r="D94" s="84">
-        <v>1.86122609372364</v>
+        <v>4.1068727794053501</v>
+      </c>
+      <c r="C94" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="90">
+        <v>3.0105508829637899</v>
       </c>
       <c r="E94">
-        <v>3.0105508829637899</v>
+        <v>2.7530574831434902</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A65:D94">
-    <sortCondition descending="1" ref="D65:D94"/>
+  <sortState ref="A65:E94">
+    <sortCondition ref="A65:A94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
